--- a/jasanabriaplaboratorio6.xlsx
+++ b/jasanabriaplaboratorio6.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DEEDEBC-1560-4DAC-B461-2438681F339F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685AEEAF-0EC8-40D5-9E36-6CCEBBA8FA93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{734921E8-74D0-42BF-83D8-0CBFC866ADD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{734921E8-74D0-42BF-83D8-0CBFC866ADD3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2. Example 1 " sheetId="1" r:id="rId1"/>
-    <sheet name="2. Example 2" sheetId="2" r:id="rId2"/>
-    <sheet name="3. Example 1" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Example 2" sheetId="4" r:id="rId4"/>
-    <sheet name="4. LP" sheetId="5" r:id="rId5"/>
+    <sheet name="1. Video" sheetId="6" r:id="rId1"/>
+    <sheet name="2. Example 1 " sheetId="1" r:id="rId2"/>
+    <sheet name="2. Example 2" sheetId="2" r:id="rId3"/>
+    <sheet name="3. Example 1" sheetId="3" r:id="rId4"/>
+    <sheet name="3. Example 2" sheetId="4" r:id="rId5"/>
+    <sheet name="4. LP" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
   <si>
     <t>DECISION VARIABLES</t>
   </si>
@@ -247,6 +248,66 @@
   </si>
   <si>
     <t>Constraint 3</t>
+  </si>
+  <si>
+    <t>f3(x,y)=-2*(x-5)^2-2*(y-5)^2+20x+20y+5</t>
+  </si>
+  <si>
+    <t>GRG Nonlinear</t>
+  </si>
+  <si>
+    <t>Evolutionary</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Restricciones</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>f1(x,y)</t>
+  </si>
+  <si>
+    <t>=SENO(B$16)+COS(A$17)</t>
+  </si>
+  <si>
+    <t>f2(x,y)</t>
+  </si>
+  <si>
+    <t>=ABS(SENO(B$16)+COS(A$17))</t>
+  </si>
+  <si>
+    <t>&lt;0</t>
+  </si>
+  <si>
+    <t>f3(x,y)</t>
+  </si>
+  <si>
+    <t>=-2*((B$16-5)^2)-2*((A$17-5)^2)+20*B$16+20*A$17+5</t>
+  </si>
+  <si>
+    <t>f4(x,y)</t>
+  </si>
+  <si>
+    <t>=B10*B11</t>
+  </si>
+  <si>
+    <t>y/x</t>
+  </si>
+  <si>
+    <t>f1(x,y)=sen(x)+cos(y)</t>
+  </si>
+  <si>
+    <t>f2(x,y)=abs|sen(x)+cos(y)|</t>
+  </si>
+  <si>
+    <t>f4(x,y)=f2(x,y)*f3(x,y)=(abs|sen(x)+cos(y)|)*(-2*(x-5)^2-2*(y-5)^2+20x+20y+5)</t>
   </si>
 </sst>
 </file>
@@ -318,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +425,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -550,12 +623,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -598,33 +665,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -632,16 +672,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,6 +1037,1843 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0E533C-C5E1-4CAE-AE6C-205EA8D169DE}">
+  <dimension ref="A1:GT217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1">
+        <f>SIN(B$16)+COS(A$17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <f>ABS(SIN(B$16)+COS(A$17))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3">
+        <f>-2*((B$16-5)^2)-2*((A$17-5)^2)+20*B$16+20*A$17+5</f>
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <f>(ABS(SIN(B$16)+COS(A$17)))*(-2*((B$16-5)^2)-2*((A$17-5)^2)+20*B$16+20*A$17+5)</f>
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="H6" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="56">
+        <v>0</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="56">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="56">
+        <v>0</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="56">
+        <v>0</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <f>H1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <f>H1</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10">
+        <f>H2</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <f>H2</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <f>H3</f>
+        <v>-95</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11">
+        <f>H3</f>
+        <v>-95</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="58">
+        <f>H4</f>
+        <v>-95</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="58">
+        <f>H4</f>
+        <v>-95</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:202" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+      <c r="F16">
+        <v>0.4</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <v>0.7</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>0.9</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.2</v>
+      </c>
+      <c r="O16">
+        <v>1.3</v>
+      </c>
+      <c r="P16">
+        <v>1.4</v>
+      </c>
+      <c r="Q16">
+        <v>1.5</v>
+      </c>
+      <c r="R16">
+        <v>1.6</v>
+      </c>
+      <c r="S16">
+        <v>1.7</v>
+      </c>
+      <c r="T16">
+        <v>1.8</v>
+      </c>
+      <c r="U16">
+        <v>1.9</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>2.1</v>
+      </c>
+      <c r="X16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z16">
+        <v>2.4</v>
+      </c>
+      <c r="AA16">
+        <v>2.5</v>
+      </c>
+      <c r="AB16">
+        <v>2.6</v>
+      </c>
+      <c r="AC16">
+        <v>2.7</v>
+      </c>
+      <c r="AD16">
+        <v>2.8</v>
+      </c>
+      <c r="AE16">
+        <v>2.9</v>
+      </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>3.1</v>
+      </c>
+      <c r="AH16">
+        <v>3.2</v>
+      </c>
+      <c r="AI16">
+        <v>3.3</v>
+      </c>
+      <c r="AJ16">
+        <v>3.4</v>
+      </c>
+      <c r="AK16">
+        <v>3.5</v>
+      </c>
+      <c r="AL16">
+        <v>3.6</v>
+      </c>
+      <c r="AM16">
+        <v>3.7</v>
+      </c>
+      <c r="AN16">
+        <v>3.8</v>
+      </c>
+      <c r="AO16">
+        <v>3.9</v>
+      </c>
+      <c r="AP16">
+        <v>4</v>
+      </c>
+      <c r="AQ16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AR16">
+        <v>4.2</v>
+      </c>
+      <c r="AS16">
+        <v>4.3</v>
+      </c>
+      <c r="AT16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU16">
+        <v>4.5</v>
+      </c>
+      <c r="AV16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AW16">
+        <v>4.7</v>
+      </c>
+      <c r="AX16">
+        <v>4.8</v>
+      </c>
+      <c r="AY16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AZ16">
+        <v>5</v>
+      </c>
+      <c r="BA16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="BB16">
+        <v>5.2</v>
+      </c>
+      <c r="BC16">
+        <v>5.3</v>
+      </c>
+      <c r="BD16">
+        <v>5.4</v>
+      </c>
+      <c r="BE16">
+        <v>5.5</v>
+      </c>
+      <c r="BF16">
+        <v>5.6</v>
+      </c>
+      <c r="BG16">
+        <v>5.7</v>
+      </c>
+      <c r="BH16">
+        <v>5.8</v>
+      </c>
+      <c r="BI16">
+        <v>5.9</v>
+      </c>
+      <c r="BJ16">
+        <v>6</v>
+      </c>
+      <c r="BK16">
+        <v>6.1</v>
+      </c>
+      <c r="BL16">
+        <v>6.2</v>
+      </c>
+      <c r="BM16">
+        <v>6.3</v>
+      </c>
+      <c r="BN16">
+        <v>6.4</v>
+      </c>
+      <c r="BO16">
+        <v>6.5</v>
+      </c>
+      <c r="BP16">
+        <v>6.6</v>
+      </c>
+      <c r="BQ16">
+        <v>6.7</v>
+      </c>
+      <c r="BR16">
+        <v>6.8</v>
+      </c>
+      <c r="BS16">
+        <v>6.9</v>
+      </c>
+      <c r="BT16">
+        <v>7</v>
+      </c>
+      <c r="BU16">
+        <v>7.1</v>
+      </c>
+      <c r="BV16">
+        <v>7.2</v>
+      </c>
+      <c r="BW16">
+        <v>7.3</v>
+      </c>
+      <c r="BX16">
+        <v>7.4</v>
+      </c>
+      <c r="BY16">
+        <v>7.5</v>
+      </c>
+      <c r="BZ16">
+        <v>7.6</v>
+      </c>
+      <c r="CA16">
+        <v>7.7</v>
+      </c>
+      <c r="CB16">
+        <v>7.8</v>
+      </c>
+      <c r="CC16">
+        <v>7.9</v>
+      </c>
+      <c r="CD16">
+        <v>8</v>
+      </c>
+      <c r="CE16">
+        <v>8.1</v>
+      </c>
+      <c r="CF16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="CG16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="CH16">
+        <v>8.4</v>
+      </c>
+      <c r="CI16">
+        <v>8.5</v>
+      </c>
+      <c r="CJ16">
+        <v>8.6</v>
+      </c>
+      <c r="CK16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="CL16">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="CM16">
+        <v>8.9</v>
+      </c>
+      <c r="CN16">
+        <v>9</v>
+      </c>
+      <c r="CO16">
+        <v>9.1</v>
+      </c>
+      <c r="CP16">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="CQ16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="CR16">
+        <v>9.4</v>
+      </c>
+      <c r="CS16">
+        <v>9.5</v>
+      </c>
+      <c r="CT16">
+        <v>9.6</v>
+      </c>
+      <c r="CU16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="CV16">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="CW16">
+        <v>9.9</v>
+      </c>
+      <c r="CX16">
+        <v>10</v>
+      </c>
+      <c r="CY16">
+        <v>10.1</v>
+      </c>
+      <c r="CZ16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="DA16">
+        <v>10.3</v>
+      </c>
+      <c r="DB16">
+        <v>10.4</v>
+      </c>
+      <c r="DC16">
+        <v>10.5</v>
+      </c>
+      <c r="DD16">
+        <v>10.6</v>
+      </c>
+      <c r="DE16">
+        <v>10.7</v>
+      </c>
+      <c r="DF16">
+        <v>10.8</v>
+      </c>
+      <c r="DG16">
+        <v>10.9</v>
+      </c>
+      <c r="DH16">
+        <v>11</v>
+      </c>
+      <c r="DI16">
+        <v>11.1</v>
+      </c>
+      <c r="DJ16">
+        <v>11.2</v>
+      </c>
+      <c r="DK16">
+        <v>11.3</v>
+      </c>
+      <c r="DL16">
+        <v>11.4</v>
+      </c>
+      <c r="DM16">
+        <v>11.5</v>
+      </c>
+      <c r="DN16">
+        <v>11.6</v>
+      </c>
+      <c r="DO16">
+        <v>11.7</v>
+      </c>
+      <c r="DP16">
+        <v>11.8</v>
+      </c>
+      <c r="DQ16">
+        <v>11.9</v>
+      </c>
+      <c r="DR16">
+        <v>12</v>
+      </c>
+      <c r="DS16">
+        <v>12.1</v>
+      </c>
+      <c r="DT16">
+        <v>12.2</v>
+      </c>
+      <c r="DU16">
+        <v>12.3</v>
+      </c>
+      <c r="DV16">
+        <v>12.4</v>
+      </c>
+      <c r="DW16">
+        <v>12.5</v>
+      </c>
+      <c r="DX16">
+        <v>12.6</v>
+      </c>
+      <c r="DY16">
+        <v>12.7</v>
+      </c>
+      <c r="DZ16">
+        <v>12.8</v>
+      </c>
+      <c r="EA16">
+        <v>12.9</v>
+      </c>
+      <c r="EB16">
+        <v>13</v>
+      </c>
+      <c r="EC16">
+        <v>13.1</v>
+      </c>
+      <c r="ED16">
+        <v>13.2</v>
+      </c>
+      <c r="EE16">
+        <v>13.3</v>
+      </c>
+      <c r="EF16">
+        <v>13.4</v>
+      </c>
+      <c r="EG16">
+        <v>13.5</v>
+      </c>
+      <c r="EH16">
+        <v>13.6</v>
+      </c>
+      <c r="EI16">
+        <v>13.7</v>
+      </c>
+      <c r="EJ16">
+        <v>13.8</v>
+      </c>
+      <c r="EK16">
+        <v>13.9</v>
+      </c>
+      <c r="EL16">
+        <v>14</v>
+      </c>
+      <c r="EM16">
+        <v>14.1</v>
+      </c>
+      <c r="EN16">
+        <v>14.2</v>
+      </c>
+      <c r="EO16">
+        <v>14.3</v>
+      </c>
+      <c r="EP16">
+        <v>14.4</v>
+      </c>
+      <c r="EQ16">
+        <v>14.5</v>
+      </c>
+      <c r="ER16">
+        <v>14.6</v>
+      </c>
+      <c r="ES16">
+        <v>14.7</v>
+      </c>
+      <c r="ET16">
+        <v>14.8</v>
+      </c>
+      <c r="EU16">
+        <v>14.9</v>
+      </c>
+      <c r="EV16">
+        <v>15</v>
+      </c>
+      <c r="EW16">
+        <v>15.1</v>
+      </c>
+      <c r="EX16">
+        <v>15.2</v>
+      </c>
+      <c r="EY16">
+        <v>15.3</v>
+      </c>
+      <c r="EZ16">
+        <v>15.4</v>
+      </c>
+      <c r="FA16">
+        <v>15.5</v>
+      </c>
+      <c r="FB16">
+        <v>15.6</v>
+      </c>
+      <c r="FC16">
+        <v>15.7</v>
+      </c>
+      <c r="FD16">
+        <v>15.8</v>
+      </c>
+      <c r="FE16">
+        <v>15.9</v>
+      </c>
+      <c r="FF16">
+        <v>16</v>
+      </c>
+      <c r="FG16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="FH16">
+        <v>16.2</v>
+      </c>
+      <c r="FI16">
+        <v>16.3</v>
+      </c>
+      <c r="FJ16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="FK16">
+        <v>16.5</v>
+      </c>
+      <c r="FL16">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="FM16">
+        <v>16.7</v>
+      </c>
+      <c r="FN16">
+        <v>16.8</v>
+      </c>
+      <c r="FO16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="FP16">
+        <v>17</v>
+      </c>
+      <c r="FQ16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="FR16">
+        <v>17.2</v>
+      </c>
+      <c r="FS16">
+        <v>17.3</v>
+      </c>
+      <c r="FT16">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="FU16">
+        <v>17.5</v>
+      </c>
+      <c r="FV16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="FW16">
+        <v>17.7</v>
+      </c>
+      <c r="FX16">
+        <v>17.8</v>
+      </c>
+      <c r="FY16">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="FZ16">
+        <v>18</v>
+      </c>
+      <c r="GA16">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="GB16">
+        <v>18.2</v>
+      </c>
+      <c r="GC16">
+        <v>18.3</v>
+      </c>
+      <c r="GD16">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="GE16">
+        <v>18.5</v>
+      </c>
+      <c r="GF16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="GG16">
+        <v>18.7</v>
+      </c>
+      <c r="GH16">
+        <v>18.8</v>
+      </c>
+      <c r="GI16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="GJ16">
+        <v>19</v>
+      </c>
+      <c r="GK16">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="GL16">
+        <v>19.2</v>
+      </c>
+      <c r="GM16">
+        <v>19.3</v>
+      </c>
+      <c r="GN16">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="GO16">
+        <v>19.5</v>
+      </c>
+      <c r="GP16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="GQ16">
+        <v>19.7</v>
+      </c>
+      <c r="GR16">
+        <v>19.8</v>
+      </c>
+      <c r="GS16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="GT16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>(ABS(SIN(B$16)+COS(A$17)))*(-2*((B$16-5)^2)-2*((A$17-5)^2)+20*B$16+20*A$17+5)</f>
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D161DB7-8BD8-44E5-8CF7-43CAC4C2ECE2}">
   <dimension ref="B2:I24"/>
   <sheetViews>
@@ -965,10 +2884,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1025,12 +2944,12 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="20"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1134,10 +3053,10 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1286,10 +3205,10 @@
       <c r="I19" s="17"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -1356,7 +3275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D168B2E3-5E60-4FAA-BD7E-5F06E7A897C0}">
   <dimension ref="B2:H21"/>
   <sheetViews>
@@ -1367,320 +3286,320 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>7.9999999999999769</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>6.0000000000000124</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>30</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="30">
         <f>C4</f>
         <v>7.9999999999999769</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <f t="shared" ref="D8:E8" si="0">D4</f>
         <v>6.0000000000000124</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="30">
         <v>6</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>10</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <v>4.5</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="32">
         <f>SUMPRODUCT(C8:E8,C9:E9)</f>
         <v>243</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="32" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="32" t="s">
+      <c r="G15" s="23"/>
+      <c r="H15" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="30">
         <v>0.1</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>0.2</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <f>SUMPRODUCT($B$3:$D$3,C16:E16)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="30">
         <v>0.05</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <f>1/25</f>
         <v>0.04</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="30">
         <f t="shared" ref="F17:F18" si="1">SUMPRODUCT($B$3:$D$3,C17:E17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="32">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="30">
         <f>C4</f>
         <v>7.9999999999999769</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="30">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="32">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="30">
         <f>D4</f>
         <v>6.0000000000000124</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="32">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="30">
         <f>E4</f>
         <v>30</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="30">
         <v>30</v>
       </c>
     </row>
@@ -1695,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637D180F-DF0D-4BCD-93DE-7AA981E94D08}">
   <dimension ref="B2:F9"/>
   <sheetViews>
@@ -1706,56 +3625,56 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="45">
+      <c r="C3" s="34">
         <v>4</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="34">
         <v>3</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="34">
         <v>8</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="35">
         <f>SUM(C3:E3)</f>
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="45">
+      <c r="C4" s="34">
         <v>9</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="34">
         <v>5</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="34">
         <v>1</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="35">
         <f>SUM(C4:E4)</f>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="45">
+      <c r="C5" s="34">
         <v>2</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="34">
         <v>7</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="34">
         <v>6</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="35">
         <f>SUM(C5:E5)</f>
         <v>15</v>
       </c>
@@ -1764,15 +3683,15 @@
       <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="35">
         <f>SUM(C3:C5)</f>
         <v>15</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="35">
         <f>SUM(D3:D5)</f>
         <v>15</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="35">
         <f>SUM(E3:E5)</f>
         <v>15</v>
       </c>
@@ -1781,13 +3700,13 @@
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="35">
         <f>SUM(C3,D4,E5)</f>
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="46">
+      <c r="C9" s="35">
         <f>SUM(E3,D4,C5)</f>
         <v>15</v>
       </c>
@@ -1800,7 +3719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B3EDFF-6DFB-4267-A038-3E1FEE2CA5A1}">
   <dimension ref="B2:L13"/>
   <sheetViews>
@@ -1818,14 +3737,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -1845,86 +3764,86 @@
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="37">
         <v>3</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="37">
         <v>0.5</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="37">
         <v>4</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="37">
         <v>2.5</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="37">
         <v>5</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="37">
         <v>1.5</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="37">
         <v>2.5</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="48"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="52" t="s">
+      <c r="L7" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="38">
         <v>35000</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="38">
         <v>22000</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="38">
         <v>3000</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="38">
         <v>0</v>
       </c>
       <c r="H8">
@@ -1942,19 +3861,19 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="38">
         <v>0</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="38">
         <v>0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="38">
         <v>15000</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="38">
         <v>30000</v>
       </c>
       <c r="H9">
@@ -1972,7 +3891,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="39" t="s">
         <v>53</v>
       </c>
       <c r="C10">
@@ -1996,7 +3915,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="39" t="s">
         <v>55</v>
       </c>
       <c r="C11">
@@ -2021,11 +3940,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="53">
+      <c r="C13" s="52"/>
+      <c r="D13" s="40">
         <f>SUMPRODUCT(C4:F5,C8:F9)</f>
         <v>200000</v>
       </c>
@@ -2043,11 +3962,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD42334E-8B0E-4710-B33E-DBAED17C953F}">
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
